--- a/www/ig/nos/ValueSet-JDV-J14-QualiteRepresentantLegal-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J14-QualiteRepresentantLegal-CISIS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.1.5.468</t>
+    <t>urn:oid:1.2.250.1.213.1.1.5.468</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2020-04-24T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,18 +144,6 @@
     <t>Arrière-grand-père</t>
   </si>
   <si>
-    <t>DAU</t>
-  </si>
-  <si>
-    <t>Fille biologique</t>
-  </si>
-  <si>
-    <t>SON</t>
-  </si>
-  <si>
-    <t>Fils biologique</t>
-  </si>
-  <si>
     <t>BRO</t>
   </si>
   <si>
@@ -204,18 +192,6 @@
     <t>Concubin(e) ou partenaire PACS</t>
   </si>
   <si>
-    <t>EXT</t>
-  </si>
-  <si>
-    <t>Autre membre de la famille sans lien génétique direct</t>
-  </si>
-  <si>
-    <t>RESPRSN</t>
-  </si>
-  <si>
-    <t>Responsable légal non membre de la famille</t>
-  </si>
-  <si>
     <t>DAUC</t>
   </si>
   <si>
@@ -226,6 +202,156 @@
   </si>
   <si>
     <t>Fils</t>
+  </si>
+  <si>
+    <t>FMRSPS</t>
+  </si>
+  <si>
+    <t>Ancien époux ou ancienne épouse</t>
+  </si>
+  <si>
+    <t>SONINLAW</t>
+  </si>
+  <si>
+    <t>Gendre</t>
+  </si>
+  <si>
+    <t>ADOPTF</t>
+  </si>
+  <si>
+    <t>Père adoptif</t>
+  </si>
+  <si>
+    <t>ADOPTM</t>
+  </si>
+  <si>
+    <t>Mère adoptive</t>
+  </si>
+  <si>
+    <t>FTHFOST</t>
+  </si>
+  <si>
+    <t>Assistant familial - Famille d'accueil</t>
+  </si>
+  <si>
+    <t>COUSN</t>
+  </si>
+  <si>
+    <t>Cousin(e)</t>
+  </si>
+  <si>
+    <t>BROINLAW</t>
+  </si>
+  <si>
+    <t>Beau-frère</t>
+  </si>
+  <si>
+    <t>CHILD</t>
+  </si>
+  <si>
+    <t>Enfant</t>
+  </si>
+  <si>
+    <t>DAUINLAW</t>
+  </si>
+  <si>
+    <t>Belle-fille</t>
+  </si>
+  <si>
+    <t>FAMMEMB</t>
+  </si>
+  <si>
+    <t>Autre membre de la famille</t>
+  </si>
+  <si>
+    <t>FRND</t>
+  </si>
+  <si>
+    <t>Autre proche</t>
+  </si>
+  <si>
+    <t>FTHINLAW</t>
+  </si>
+  <si>
+    <t>Beau-père</t>
+  </si>
+  <si>
+    <t>HBRO</t>
+  </si>
+  <si>
+    <t>Demi-frère</t>
+  </si>
+  <si>
+    <t>HUSB</t>
+  </si>
+  <si>
+    <t>Epoux</t>
+  </si>
+  <si>
+    <t>MTHFOST</t>
+  </si>
+  <si>
+    <t>Assistante familiale - Famille d'accueil</t>
+  </si>
+  <si>
+    <t>MTHINLAW</t>
+  </si>
+  <si>
+    <t>Belle-mère</t>
+  </si>
+  <si>
+    <t>NEPHEW</t>
+  </si>
+  <si>
+    <t>Neveu</t>
+  </si>
+  <si>
+    <t>NIECE</t>
+  </si>
+  <si>
+    <t>Nièce</t>
+  </si>
+  <si>
+    <t>SIGOTHR</t>
+  </si>
+  <si>
+    <t>Conjoint</t>
+  </si>
+  <si>
+    <t>SISINLAW</t>
+  </si>
+  <si>
+    <t>Belle-soeur</t>
+  </si>
+  <si>
+    <t>STPSIS</t>
+  </si>
+  <si>
+    <t>Fille du beau-père ou de la belle-mère</t>
+  </si>
+  <si>
+    <t>STPSON</t>
+  </si>
+  <si>
+    <t>Fils du conjoint, issu d'un mariage précédent</t>
+  </si>
+  <si>
+    <t>WIFE</t>
+  </si>
+  <si>
+    <t>Epouse</t>
+  </si>
+  <si>
+    <t>STPDAU</t>
+  </si>
+  <si>
+    <t>Fille du conjoint, issue d'un mariage précédent</t>
+  </si>
+  <si>
+    <t>HSIS</t>
+  </si>
+  <si>
+    <t>Demi-soeur</t>
   </si>
   <si>
     <t/>
@@ -497,7 +623,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -696,15 +822,191 @@
         <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J14-QualiteRepresentantLegal-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J14-QualiteRepresentantLegal-CISIS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -352,9 +358,6 @@
   </si>
   <si>
     <t>Demi-soeur</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -600,20 +603,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -635,378 +646,378 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J14-QualiteRepresentantLegal-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J14-QualiteRepresentantLegal-CISIS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,292 +72,289 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Qualité représentant légal - CI-SIS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>MTH</t>
+  </si>
+  <si>
+    <t>Mère</t>
+  </si>
+  <si>
+    <t>FTH</t>
+  </si>
+  <si>
+    <t>Père</t>
+  </si>
+  <si>
+    <t>STPMTH</t>
+  </si>
+  <si>
+    <t>Belle-mère - épouse du père ou de la mère</t>
+  </si>
+  <si>
+    <t>STPFTH</t>
+  </si>
+  <si>
+    <t>Beau-père - époux du père ou de la mère</t>
+  </si>
+  <si>
+    <t>GRMTH</t>
+  </si>
+  <si>
+    <t>Grand-mère</t>
+  </si>
+  <si>
+    <t>GRFTH</t>
+  </si>
+  <si>
+    <t>Grand-père</t>
+  </si>
+  <si>
+    <t>GGRMTH</t>
+  </si>
+  <si>
+    <t>Arrière-grand-mère</t>
+  </si>
+  <si>
+    <t>GGRFTH</t>
+  </si>
+  <si>
+    <t>Arrière-grand-père</t>
+  </si>
+  <si>
+    <t>BRO</t>
+  </si>
+  <si>
+    <t>Frère</t>
+  </si>
+  <si>
+    <t>SIS</t>
+  </si>
+  <si>
+    <t>Soeur</t>
+  </si>
+  <si>
+    <t>GRNDDAU</t>
+  </si>
+  <si>
+    <t>Petite-fille</t>
+  </si>
+  <si>
+    <t>GRNDSO</t>
+  </si>
+  <si>
+    <t>Petit-fils</t>
+  </si>
+  <si>
+    <t>UNCLE</t>
+  </si>
+  <si>
+    <t>Oncle</t>
+  </si>
+  <si>
+    <t>AUNT</t>
+  </si>
+  <si>
+    <t>Tante</t>
+  </si>
+  <si>
+    <t>SPS</t>
+  </si>
+  <si>
+    <t>Epoux ou épouse</t>
+  </si>
+  <si>
+    <t>DOMPART</t>
+  </si>
+  <si>
+    <t>Concubin(e) ou partenaire PACS</t>
+  </si>
+  <si>
+    <t>DAUC</t>
+  </si>
+  <si>
+    <t>Fille</t>
+  </si>
+  <si>
+    <t>SONC</t>
+  </si>
+  <si>
+    <t>Fils</t>
+  </si>
+  <si>
+    <t>FMRSPS</t>
+  </si>
+  <si>
+    <t>Ancien époux ou ancienne épouse</t>
+  </si>
+  <si>
+    <t>SONINLAW</t>
+  </si>
+  <si>
+    <t>Gendre</t>
+  </si>
+  <si>
+    <t>ADOPTF</t>
+  </si>
+  <si>
+    <t>Père adoptif</t>
+  </si>
+  <si>
+    <t>ADOPTM</t>
+  </si>
+  <si>
+    <t>Mère adoptive</t>
+  </si>
+  <si>
+    <t>FTHFOST</t>
+  </si>
+  <si>
+    <t>Assistant familial - Famille d'accueil</t>
+  </si>
+  <si>
+    <t>COUSN</t>
+  </si>
+  <si>
+    <t>Cousin(e)</t>
+  </si>
+  <si>
+    <t>BROINLAW</t>
+  </si>
+  <si>
+    <t>Beau-frère</t>
+  </si>
+  <si>
+    <t>CHILD</t>
+  </si>
+  <si>
+    <t>Enfant</t>
+  </si>
+  <si>
+    <t>DAUINLAW</t>
+  </si>
+  <si>
+    <t>Belle-fille</t>
+  </si>
+  <si>
+    <t>FAMMEMB</t>
+  </si>
+  <si>
+    <t>Autre membre de la famille</t>
+  </si>
+  <si>
+    <t>FRND</t>
+  </si>
+  <si>
+    <t>Autre proche</t>
+  </si>
+  <si>
+    <t>FTHINLAW</t>
+  </si>
+  <si>
+    <t>Beau-père</t>
+  </si>
+  <si>
+    <t>HBRO</t>
+  </si>
+  <si>
+    <t>Demi-frère</t>
+  </si>
+  <si>
+    <t>HUSB</t>
+  </si>
+  <si>
+    <t>Epoux</t>
+  </si>
+  <si>
+    <t>MTHFOST</t>
+  </si>
+  <si>
+    <t>Assistante familiale - Famille d'accueil</t>
+  </si>
+  <si>
+    <t>MTHINLAW</t>
+  </si>
+  <si>
+    <t>Belle-mère</t>
+  </si>
+  <si>
+    <t>NEPHEW</t>
+  </si>
+  <si>
+    <t>Neveu</t>
+  </si>
+  <si>
+    <t>NIECE</t>
+  </si>
+  <si>
+    <t>Nièce</t>
+  </si>
+  <si>
+    <t>SIGOTHR</t>
+  </si>
+  <si>
+    <t>Conjoint</t>
+  </si>
+  <si>
+    <t>SISINLAW</t>
+  </si>
+  <si>
+    <t>Belle-soeur</t>
+  </si>
+  <si>
+    <t>STPSIS</t>
+  </si>
+  <si>
+    <t>Fille du beau-père ou de la belle-mère</t>
+  </si>
+  <si>
+    <t>STPSON</t>
+  </si>
+  <si>
+    <t>Fils du conjoint, issu d'un mariage précédent</t>
+  </si>
+  <si>
+    <t>WIFE</t>
+  </si>
+  <si>
+    <t>Epouse</t>
+  </si>
+  <si>
+    <t>STPDAU</t>
+  </si>
+  <si>
+    <t>Fille du conjoint, issue d'un mariage précédent</t>
+  </si>
+  <si>
+    <t>HSIS</t>
+  </si>
+  <si>
+    <t>Demi-soeur</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Qualité représentant légal - CI-SIS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>MTH</t>
-  </si>
-  <si>
-    <t>Mère</t>
-  </si>
-  <si>
-    <t>FTH</t>
-  </si>
-  <si>
-    <t>Père</t>
-  </si>
-  <si>
-    <t>STPMTH</t>
-  </si>
-  <si>
-    <t>Belle-mère - épouse du père ou de la mère</t>
-  </si>
-  <si>
-    <t>STPFTH</t>
-  </si>
-  <si>
-    <t>Beau-père - époux du père ou de la mère</t>
-  </si>
-  <si>
-    <t>GRMTH</t>
-  </si>
-  <si>
-    <t>Grand-mère</t>
-  </si>
-  <si>
-    <t>GRFTH</t>
-  </si>
-  <si>
-    <t>Grand-père</t>
-  </si>
-  <si>
-    <t>GGRMTH</t>
-  </si>
-  <si>
-    <t>Arrière-grand-mère</t>
-  </si>
-  <si>
-    <t>GGRFTH</t>
-  </si>
-  <si>
-    <t>Arrière-grand-père</t>
-  </si>
-  <si>
-    <t>BRO</t>
-  </si>
-  <si>
-    <t>Frère</t>
-  </si>
-  <si>
-    <t>SIS</t>
-  </si>
-  <si>
-    <t>Soeur</t>
-  </si>
-  <si>
-    <t>GRNDDAU</t>
-  </si>
-  <si>
-    <t>Petite-fille</t>
-  </si>
-  <si>
-    <t>GRNDSO</t>
-  </si>
-  <si>
-    <t>Petit-fils</t>
-  </si>
-  <si>
-    <t>UNCLE</t>
-  </si>
-  <si>
-    <t>Oncle</t>
-  </si>
-  <si>
-    <t>AUNT</t>
-  </si>
-  <si>
-    <t>Tante</t>
-  </si>
-  <si>
-    <t>SPS</t>
-  </si>
-  <si>
-    <t>Epoux ou épouse</t>
-  </si>
-  <si>
-    <t>DOMPART</t>
-  </si>
-  <si>
-    <t>Concubin(e) ou partenaire PACS</t>
-  </si>
-  <si>
-    <t>DAUC</t>
-  </si>
-  <si>
-    <t>Fille</t>
-  </si>
-  <si>
-    <t>SONC</t>
-  </si>
-  <si>
-    <t>Fils</t>
-  </si>
-  <si>
-    <t>FMRSPS</t>
-  </si>
-  <si>
-    <t>Ancien époux ou ancienne épouse</t>
-  </si>
-  <si>
-    <t>SONINLAW</t>
-  </si>
-  <si>
-    <t>Gendre</t>
-  </si>
-  <si>
-    <t>ADOPTF</t>
-  </si>
-  <si>
-    <t>Père adoptif</t>
-  </si>
-  <si>
-    <t>ADOPTM</t>
-  </si>
-  <si>
-    <t>Mère adoptive</t>
-  </si>
-  <si>
-    <t>FTHFOST</t>
-  </si>
-  <si>
-    <t>Assistant familial - Famille d'accueil</t>
-  </si>
-  <si>
-    <t>COUSN</t>
-  </si>
-  <si>
-    <t>Cousin(e)</t>
-  </si>
-  <si>
-    <t>BROINLAW</t>
-  </si>
-  <si>
-    <t>Beau-frère</t>
-  </si>
-  <si>
-    <t>CHILD</t>
-  </si>
-  <si>
-    <t>Enfant</t>
-  </si>
-  <si>
-    <t>DAUINLAW</t>
-  </si>
-  <si>
-    <t>Belle-fille</t>
-  </si>
-  <si>
-    <t>FAMMEMB</t>
-  </si>
-  <si>
-    <t>Autre membre de la famille</t>
-  </si>
-  <si>
-    <t>FRND</t>
-  </si>
-  <si>
-    <t>Autre proche</t>
-  </si>
-  <si>
-    <t>FTHINLAW</t>
-  </si>
-  <si>
-    <t>Beau-père</t>
-  </si>
-  <si>
-    <t>HBRO</t>
-  </si>
-  <si>
-    <t>Demi-frère</t>
-  </si>
-  <si>
-    <t>HUSB</t>
-  </si>
-  <si>
-    <t>Epoux</t>
-  </si>
-  <si>
-    <t>MTHFOST</t>
-  </si>
-  <si>
-    <t>Assistante familiale - Famille d'accueil</t>
-  </si>
-  <si>
-    <t>MTHINLAW</t>
-  </si>
-  <si>
-    <t>Belle-mère</t>
-  </si>
-  <si>
-    <t>NEPHEW</t>
-  </si>
-  <si>
-    <t>Neveu</t>
-  </si>
-  <si>
-    <t>NIECE</t>
-  </si>
-  <si>
-    <t>Nièce</t>
-  </si>
-  <si>
-    <t>SIGOTHR</t>
-  </si>
-  <si>
-    <t>Conjoint</t>
-  </si>
-  <si>
-    <t>SISINLAW</t>
-  </si>
-  <si>
-    <t>Belle-soeur</t>
-  </si>
-  <si>
-    <t>STPSIS</t>
-  </si>
-  <si>
-    <t>Fille du beau-père ou de la belle-mère</t>
-  </si>
-  <si>
-    <t>STPSON</t>
-  </si>
-  <si>
-    <t>Fils du conjoint, issu d'un mariage précédent</t>
-  </si>
-  <si>
-    <t>WIFE</t>
-  </si>
-  <si>
-    <t>Epouse</t>
-  </si>
-  <si>
-    <t>STPDAU</t>
-  </si>
-  <si>
-    <t>Fille du conjoint, issue d'un mariage précédent</t>
-  </si>
-  <si>
-    <t>HSIS</t>
-  </si>
-  <si>
-    <t>Demi-soeur</t>
   </si>
   <si>
     <t>System URI</t>
@@ -497,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -603,28 +600,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -646,378 +635,378 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J14-QualiteRepresentantLegal-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J14-QualiteRepresentantLegal-CISIS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,289 +75,286 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Qualité représentant légal - CI-SIS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>MTH</t>
+  </si>
+  <si>
+    <t>Mère</t>
+  </si>
+  <si>
+    <t>FTH</t>
+  </si>
+  <si>
+    <t>Père</t>
+  </si>
+  <si>
+    <t>STPMTH</t>
+  </si>
+  <si>
+    <t>Belle-mère - épouse du père ou de la mère</t>
+  </si>
+  <si>
+    <t>STPFTH</t>
+  </si>
+  <si>
+    <t>Beau-père - époux du père ou de la mère</t>
+  </si>
+  <si>
+    <t>GRMTH</t>
+  </si>
+  <si>
+    <t>Grand-mère</t>
+  </si>
+  <si>
+    <t>GRFTH</t>
+  </si>
+  <si>
+    <t>Grand-père</t>
+  </si>
+  <si>
+    <t>GGRMTH</t>
+  </si>
+  <si>
+    <t>Arrière-grand-mère</t>
+  </si>
+  <si>
+    <t>GGRFTH</t>
+  </si>
+  <si>
+    <t>Arrière-grand-père</t>
+  </si>
+  <si>
+    <t>BRO</t>
+  </si>
+  <si>
+    <t>Frère</t>
+  </si>
+  <si>
+    <t>SIS</t>
+  </si>
+  <si>
+    <t>Soeur</t>
+  </si>
+  <si>
+    <t>GRNDDAU</t>
+  </si>
+  <si>
+    <t>Petite-fille</t>
+  </si>
+  <si>
+    <t>GRNDSO</t>
+  </si>
+  <si>
+    <t>Petit-fils</t>
+  </si>
+  <si>
+    <t>UNCLE</t>
+  </si>
+  <si>
+    <t>Oncle</t>
+  </si>
+  <si>
+    <t>AUNT</t>
+  </si>
+  <si>
+    <t>Tante</t>
+  </si>
+  <si>
+    <t>SPS</t>
+  </si>
+  <si>
+    <t>Epoux ou épouse</t>
+  </si>
+  <si>
+    <t>DOMPART</t>
+  </si>
+  <si>
+    <t>Concubin(e) ou partenaire PACS</t>
+  </si>
+  <si>
+    <t>DAUC</t>
+  </si>
+  <si>
+    <t>Fille</t>
+  </si>
+  <si>
+    <t>SONC</t>
+  </si>
+  <si>
+    <t>Fils</t>
+  </si>
+  <si>
+    <t>FMRSPS</t>
+  </si>
+  <si>
+    <t>Ancien époux ou ancienne épouse</t>
+  </si>
+  <si>
+    <t>SONINLAW</t>
+  </si>
+  <si>
+    <t>Gendre</t>
+  </si>
+  <si>
+    <t>ADOPTF</t>
+  </si>
+  <si>
+    <t>Père adoptif</t>
+  </si>
+  <si>
+    <t>ADOPTM</t>
+  </si>
+  <si>
+    <t>Mère adoptive</t>
+  </si>
+  <si>
+    <t>FTHFOST</t>
+  </si>
+  <si>
+    <t>Assistant familial - Famille d'accueil</t>
+  </si>
+  <si>
+    <t>COUSN</t>
+  </si>
+  <si>
+    <t>Cousin(e)</t>
+  </si>
+  <si>
+    <t>BROINLAW</t>
+  </si>
+  <si>
+    <t>Beau-frère</t>
+  </si>
+  <si>
+    <t>CHILD</t>
+  </si>
+  <si>
+    <t>Enfant</t>
+  </si>
+  <si>
+    <t>DAUINLAW</t>
+  </si>
+  <si>
+    <t>Belle-fille</t>
+  </si>
+  <si>
+    <t>FAMMEMB</t>
+  </si>
+  <si>
+    <t>Autre membre de la famille</t>
+  </si>
+  <si>
+    <t>FRND</t>
+  </si>
+  <si>
+    <t>Autre proche</t>
+  </si>
+  <si>
+    <t>FTHINLAW</t>
+  </si>
+  <si>
+    <t>Beau-père</t>
+  </si>
+  <si>
+    <t>HBRO</t>
+  </si>
+  <si>
+    <t>Demi-frère</t>
+  </si>
+  <si>
+    <t>HUSB</t>
+  </si>
+  <si>
+    <t>Epoux</t>
+  </si>
+  <si>
+    <t>MTHFOST</t>
+  </si>
+  <si>
+    <t>Assistante familiale - Famille d'accueil</t>
+  </si>
+  <si>
+    <t>MTHINLAW</t>
+  </si>
+  <si>
+    <t>Belle-mère</t>
+  </si>
+  <si>
+    <t>NEPHEW</t>
+  </si>
+  <si>
+    <t>Neveu</t>
+  </si>
+  <si>
+    <t>NIECE</t>
+  </si>
+  <si>
+    <t>Nièce</t>
+  </si>
+  <si>
+    <t>SIGOTHR</t>
+  </si>
+  <si>
+    <t>Conjoint</t>
+  </si>
+  <si>
+    <t>SISINLAW</t>
+  </si>
+  <si>
+    <t>Belle-soeur</t>
+  </si>
+  <si>
+    <t>STPSIS</t>
+  </si>
+  <si>
+    <t>Fille du beau-père ou de la belle-mère</t>
+  </si>
+  <si>
+    <t>STPSON</t>
+  </si>
+  <si>
+    <t>Fils du conjoint, issu d'un mariage précédent</t>
+  </si>
+  <si>
+    <t>WIFE</t>
+  </si>
+  <si>
+    <t>Epouse</t>
+  </si>
+  <si>
+    <t>STPDAU</t>
+  </si>
+  <si>
+    <t>Fille du conjoint, issue d'un mariage précédent</t>
+  </si>
+  <si>
+    <t>HSIS</t>
+  </si>
+  <si>
+    <t>Demi-soeur</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Qualité représentant légal - CI-SIS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>MTH</t>
-  </si>
-  <si>
-    <t>Mère</t>
-  </si>
-  <si>
-    <t>FTH</t>
-  </si>
-  <si>
-    <t>Père</t>
-  </si>
-  <si>
-    <t>STPMTH</t>
-  </si>
-  <si>
-    <t>Belle-mère - épouse du père ou de la mère</t>
-  </si>
-  <si>
-    <t>STPFTH</t>
-  </si>
-  <si>
-    <t>Beau-père - époux du père ou de la mère</t>
-  </si>
-  <si>
-    <t>GRMTH</t>
-  </si>
-  <si>
-    <t>Grand-mère</t>
-  </si>
-  <si>
-    <t>GRFTH</t>
-  </si>
-  <si>
-    <t>Grand-père</t>
-  </si>
-  <si>
-    <t>GGRMTH</t>
-  </si>
-  <si>
-    <t>Arrière-grand-mère</t>
-  </si>
-  <si>
-    <t>GGRFTH</t>
-  </si>
-  <si>
-    <t>Arrière-grand-père</t>
-  </si>
-  <si>
-    <t>BRO</t>
-  </si>
-  <si>
-    <t>Frère</t>
-  </si>
-  <si>
-    <t>SIS</t>
-  </si>
-  <si>
-    <t>Soeur</t>
-  </si>
-  <si>
-    <t>GRNDDAU</t>
-  </si>
-  <si>
-    <t>Petite-fille</t>
-  </si>
-  <si>
-    <t>GRNDSO</t>
-  </si>
-  <si>
-    <t>Petit-fils</t>
-  </si>
-  <si>
-    <t>UNCLE</t>
-  </si>
-  <si>
-    <t>Oncle</t>
-  </si>
-  <si>
-    <t>AUNT</t>
-  </si>
-  <si>
-    <t>Tante</t>
-  </si>
-  <si>
-    <t>SPS</t>
-  </si>
-  <si>
-    <t>Epoux ou épouse</t>
-  </si>
-  <si>
-    <t>DOMPART</t>
-  </si>
-  <si>
-    <t>Concubin(e) ou partenaire PACS</t>
-  </si>
-  <si>
-    <t>DAUC</t>
-  </si>
-  <si>
-    <t>Fille</t>
-  </si>
-  <si>
-    <t>SONC</t>
-  </si>
-  <si>
-    <t>Fils</t>
-  </si>
-  <si>
-    <t>FMRSPS</t>
-  </si>
-  <si>
-    <t>Ancien époux ou ancienne épouse</t>
-  </si>
-  <si>
-    <t>SONINLAW</t>
-  </si>
-  <si>
-    <t>Gendre</t>
-  </si>
-  <si>
-    <t>ADOPTF</t>
-  </si>
-  <si>
-    <t>Père adoptif</t>
-  </si>
-  <si>
-    <t>ADOPTM</t>
-  </si>
-  <si>
-    <t>Mère adoptive</t>
-  </si>
-  <si>
-    <t>FTHFOST</t>
-  </si>
-  <si>
-    <t>Assistant familial - Famille d'accueil</t>
-  </si>
-  <si>
-    <t>COUSN</t>
-  </si>
-  <si>
-    <t>Cousin(e)</t>
-  </si>
-  <si>
-    <t>BROINLAW</t>
-  </si>
-  <si>
-    <t>Beau-frère</t>
-  </si>
-  <si>
-    <t>CHILD</t>
-  </si>
-  <si>
-    <t>Enfant</t>
-  </si>
-  <si>
-    <t>DAUINLAW</t>
-  </si>
-  <si>
-    <t>Belle-fille</t>
-  </si>
-  <si>
-    <t>FAMMEMB</t>
-  </si>
-  <si>
-    <t>Autre membre de la famille</t>
-  </si>
-  <si>
-    <t>FRND</t>
-  </si>
-  <si>
-    <t>Autre proche</t>
-  </si>
-  <si>
-    <t>FTHINLAW</t>
-  </si>
-  <si>
-    <t>Beau-père</t>
-  </si>
-  <si>
-    <t>HBRO</t>
-  </si>
-  <si>
-    <t>Demi-frère</t>
-  </si>
-  <si>
-    <t>HUSB</t>
-  </si>
-  <si>
-    <t>Epoux</t>
-  </si>
-  <si>
-    <t>MTHFOST</t>
-  </si>
-  <si>
-    <t>Assistante familiale - Famille d'accueil</t>
-  </si>
-  <si>
-    <t>MTHINLAW</t>
-  </si>
-  <si>
-    <t>Belle-mère</t>
-  </si>
-  <si>
-    <t>NEPHEW</t>
-  </si>
-  <si>
-    <t>Neveu</t>
-  </si>
-  <si>
-    <t>NIECE</t>
-  </si>
-  <si>
-    <t>Nièce</t>
-  </si>
-  <si>
-    <t>SIGOTHR</t>
-  </si>
-  <si>
-    <t>Conjoint</t>
-  </si>
-  <si>
-    <t>SISINLAW</t>
-  </si>
-  <si>
-    <t>Belle-soeur</t>
-  </si>
-  <si>
-    <t>STPSIS</t>
-  </si>
-  <si>
-    <t>Fille du beau-père ou de la belle-mère</t>
-  </si>
-  <si>
-    <t>STPSON</t>
-  </si>
-  <si>
-    <t>Fils du conjoint, issu d'un mariage précédent</t>
-  </si>
-  <si>
-    <t>WIFE</t>
-  </si>
-  <si>
-    <t>Epouse</t>
-  </si>
-  <si>
-    <t>STPDAU</t>
-  </si>
-  <si>
-    <t>Fille du conjoint, issue d'un mariage précédent</t>
-  </si>
-  <si>
-    <t>HSIS</t>
-  </si>
-  <si>
-    <t>Demi-soeur</t>
   </si>
   <si>
     <t>System URI</t>
@@ -497,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -603,28 +600,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -646,378 +635,378 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J14-QualiteRepresentantLegal-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J14-QualiteRepresentantLegal-CISIS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T12:00:00+01:00</t>
+    <t>2024-12-13T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -623,7 +623,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -891,121 +891,113 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B47" t="s" s="2">
         <v>115</v>
       </c>
     </row>
